--- a/Pin Layout.xlsx
+++ b/Pin Layout.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>FRONT RIGHT QRD BIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SONAR LEFT SEND</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,18 +117,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOTOR RIGHT FORWARD PWM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOTOR RIGHT REVERSE PWM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOTOR LEFT REVERSE PWM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOTOR LEFT FORWARD PWM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +202,38 @@
   </si>
   <si>
     <t>FRONT LEFT QRD BIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D10~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D11~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SONAR RIGHT RECEIVE~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +251,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,12 +302,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="48"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -344,8 +346,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,7 +680,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -690,12 +692,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
@@ -705,7 +707,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -716,24 +718,24 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>17</v>
@@ -741,129 +743,129 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>20</v>
+        <v>51</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -889,8 +891,8 @@
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>4</v>
+      <c r="E17" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:5">
